--- a/200_выпусков_'О_мой_питч!'_OutOfScope_update.xlsx
+++ b/200_выпусков_'О_мой_питч!'_OutOfScope_update.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iRU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iRU\Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15019,8 +15019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20609,14 +20609,14 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>33</v>
       </c>
       <c r="B169" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="30" t="s">
         <v>95</v>
       </c>
       <c r="D169" t="s">

--- a/200_выпусков_'О_мой_питч!'_OutOfScope_update.xlsx
+++ b/200_выпусков_'О_мой_питч!'_OutOfScope_update.xlsx
@@ -15019,8 +15019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
